--- a/ExcelConfig/drop.掉落.xlsx
+++ b/ExcelConfig/drop.掉落.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>sheet名</t>
   </si>
@@ -86,22 +86,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>t-1</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>普通怪掉落</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -135,22 +119,6 @@
   </si>
   <si>
     <t>item_id:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>t-1</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -243,6 +211,42 @@
   </si>
   <si>
     <t>helpCol</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通怪金币掉落</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t-1-item</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt-1-coin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt-1-coin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt-1-item</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -801,14 +805,14 @@
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -819,14 +823,14 @@
     </row>
     <row r="3" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -837,14 +841,14 @@
     </row>
     <row r="4" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -855,14 +859,14 @@
     </row>
     <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -895,31 +899,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
     <col min="5" max="5" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E1" s="5"/>
     </row>
@@ -954,10 +958,10 @@
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -968,10 +972,18 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10000</v>
+      </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -997,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1015,25 +1027,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1041,22 +1053,22 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -1064,36 +1076,36 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>26</v>
+      <c r="A4" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -1106,17 +1118,17 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>26</v>
+      <c r="A5" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -1129,17 +1141,17 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>26</v>
+      <c r="A6" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -1149,6 +1161,29 @@
       </c>
       <c r="G6" s="3">
         <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="3">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3">
+        <v>30</v>
+      </c>
+      <c r="G7" s="3">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
